--- a/docs/Movies_New_Record.xlsx
+++ b/docs/Movies_New_Record.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr saveExternalLinkValues="0" updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9F81CF-BA5A-4B7E-8611-A7489A0B0921}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069F2E1D-7D0C-4A29-B3EC-8A9A4DC9F1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="New Record" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -22,6 +22,20 @@
     <definedName name="List">[1]Movies!$S$6:$S$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -73,14 +87,14 @@
     <t>Hour</t>
   </si>
   <si>
-    <t>Minute</t>
+    <t>Minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,22 +103,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -132,8 +133,80 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color indexed="59"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
@@ -143,7 +216,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="59"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -151,12 +224,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="59"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="59"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -165,80 +238,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="59"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="59"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="59"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -246,74 +257,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,158 +336,6 @@
       <sheetName val="Stats"/>
       <sheetName val="Books"/>
     </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="S6" t="str">
-            <v>Action</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="S7" t="str">
-            <v>Adventure</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="S8" t="str">
-            <v>Animation</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="S9" t="str">
-            <v>Biography</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="S10" t="str">
-            <v>Comedy</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="S11" t="str">
-            <v>Crime</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="S12" t="str">
-            <v>Documentary</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="S13" t="str">
-            <v>Drama</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="S14" t="str">
-            <v>Family</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="S15" t="str">
-            <v>Fantasy</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="S16" t="str">
-            <v>Film-Noir</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="S17" t="str">
-            <v>Game-Show</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="S18" t="str">
-            <v>History</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="S19" t="str">
-            <v>Horror</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="S20" t="str">
-            <v>Music</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="S21" t="str">
-            <v>Musical</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="S22" t="str">
-            <v>Mystery</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="S23" t="str">
-            <v>News</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="S24" t="str">
-            <v>Reality-TV</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="S25" t="str">
-            <v>Romance</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="S26" t="str">
-            <v>Sci-Fi</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="S27" t="str">
-            <v>Sport</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="S28" t="str">
-            <v>Talk-Show</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="S29" t="str">
-            <v>Thriller</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="S30" t="str">
-            <v>TV Movie</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="S31" t="str">
-            <v>War</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="S32" t="str">
-            <v>Western</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="S33" t="str">
-            <v>No words</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="S34" t="str">
-            <v>You want my eyes?</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
@@ -793,172 +637,941 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:R5"/>
+  <dimension ref="C1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="14" style="10" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="10" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="10" customWidth="1"/>
-    <col min="15" max="34" width="9.140625" style="10" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="12.42578125" style="1" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="4"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22" t="s">
+    <row r="1" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="23" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="24"/>
-    </row>
-    <row r="2" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="6" t="s">
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="3:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="13"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="1"/>
+    <row r="3" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="19"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="6"/>
     </row>
     <row r="4" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C4" s="14"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="15"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="21"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="18"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="2"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
     <mergeCell ref="N3:N5"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="H3:H5"/>
     <mergeCell ref="J3:J5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:J5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:J3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>List</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>